--- a/output/fit_clients/fit_round_283.xlsx
+++ b/output/fit_clients/fit_round_283.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2490277833.702263</v>
+        <v>1948713704.996539</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09165455680942218</v>
+        <v>0.08118111033313896</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04484201717074091</v>
+        <v>0.02815989869172687</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1245138978.452452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2155864744.997527</v>
+        <v>1943524183.811311</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1383276648261127</v>
+        <v>0.1573891302439439</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03085230441923609</v>
+        <v>0.0426286134870645</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1077932436.693653</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4606537263.371944</v>
+        <v>3243311080.131835</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1431025429522651</v>
+        <v>0.1424255711040682</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02536991733614751</v>
+        <v>0.03087653228596488</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>102</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2303268688.839011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2786917893.400546</v>
+        <v>2559779773.06105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08573223819199975</v>
+        <v>0.0734492391007283</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03967815052099251</v>
+        <v>0.04306858045774304</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1393459030.67633</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2862620063.71488</v>
+        <v>2458446536.948248</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1253184865472341</v>
+        <v>0.1028492079522331</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04399782383643246</v>
+        <v>0.03470410987422923</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>52</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1431309968.094735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1944085508.569238</v>
+        <v>2471134946.307094</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09154032192360377</v>
+        <v>0.1002335908065285</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03011737952256863</v>
+        <v>0.04485617473254171</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>88</v>
-      </c>
-      <c r="J7" t="n">
-        <v>972042820.7924553</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2494605863.479962</v>
+        <v>2773342082.329469</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1966880856916925</v>
+        <v>0.2080464178871871</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02539690656356203</v>
+        <v>0.02889130551528584</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1247302937.5861</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1450017905.277725</v>
+        <v>2132960132.365099</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1515840754932569</v>
+        <v>0.1699588596184505</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02547011074374486</v>
+        <v>0.02581137768123403</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>725009055.5590276</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4993986076.543979</v>
+        <v>4877301722.960197</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1381202989397984</v>
+        <v>0.1565425854721906</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03624134659533747</v>
+        <v>0.04355811488914755</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>119</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2496993137.122385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3507846679.102896</v>
+        <v>3568320938.297012</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1458051133131236</v>
+        <v>0.1881963845094811</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03076483250318095</v>
+        <v>0.0473591246288431</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>117</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1753923317.879343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2284263542.338782</v>
+        <v>2953872478.7939</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1834643352310926</v>
+        <v>0.1870067552559854</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04324609667760341</v>
+        <v>0.05384991807024428</v>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>96</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1142131723.619329</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5178596704.739326</v>
+        <v>3283589659.49395</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0745769072871578</v>
+        <v>0.09967852547943647</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0261220245975337</v>
+        <v>0.02375447617535019</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>95</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2589298347.43357</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3154984624.021597</v>
+        <v>2597779608.555553</v>
       </c>
       <c r="F14" t="n">
-        <v>0.183182005536408</v>
+        <v>0.1545392484097703</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03519888144915756</v>
+        <v>0.03165559582796878</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1577492335.220997</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1289351116.623414</v>
+        <v>1245909074.60857</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06623819221467139</v>
+        <v>0.06743072374076987</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04703702238145721</v>
+        <v>0.04657092249095564</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>644675596.0580888</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1881810911.677963</v>
+        <v>2805493830.461726</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09543241158389609</v>
+        <v>0.07353042751279547</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04823948681826681</v>
+        <v>0.04588011664756935</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>55</v>
-      </c>
-      <c r="J16" t="n">
-        <v>940905541.8818593</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3795912921.438493</v>
+        <v>4872982887.906324</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1523834800907149</v>
+        <v>0.1731198740786223</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04019467474099515</v>
+        <v>0.0464196877428882</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>83</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1897956505.42635</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3674793407.977474</v>
+        <v>3597743040.363384</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1326820399447692</v>
+        <v>0.1747972527948693</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02280369499915019</v>
+        <v>0.02975499210656521</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>92</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1837396685.391884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1061534518.014538</v>
+        <v>927668314.1813642</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1501381081161001</v>
+        <v>0.1605107825253795</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02636307112010944</v>
+        <v>0.02691096807426294</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>530767303.2263144</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2394839776.98789</v>
+        <v>2383637028.080351</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1321595986611936</v>
+        <v>0.1534002021669546</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02212379487191916</v>
+        <v>0.02957096190078285</v>
       </c>
       <c r="H20" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1197419872.781516</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2124462639.123241</v>
+        <v>1800559903.404235</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07934306184706043</v>
+        <v>0.09701343915957621</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0278545698161443</v>
+        <v>0.04111320765603851</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1062231343.580184</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2898584128.622618</v>
+        <v>3156474892.920186</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1185618867462771</v>
+        <v>0.135404966259244</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04992201499320453</v>
+        <v>0.03639670564442936</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1449292131.915795</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1405709483.498256</v>
+        <v>1317341174.3089</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1294310149954251</v>
+        <v>0.1784481454226503</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05168406424005487</v>
+        <v>0.05248050219084422</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>702854743.5909381</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3331329127.949229</v>
+        <v>3590290729.25996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1348145129076224</v>
+        <v>0.1003333460693023</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02485349429164302</v>
+        <v>0.02575515509702707</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>83</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1665664576.935123</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1403198863.817438</v>
+        <v>1419822457.130779</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1015743352341193</v>
+        <v>0.118676476658453</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02108546353569195</v>
+        <v>0.02042423786513922</v>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>701599403.1277975</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1061146236.689354</v>
+        <v>1118908123.774378</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1147366548812408</v>
+        <v>0.07685908386848248</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03443880272032826</v>
+        <v>0.02926430025993027</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>530573105.443808</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2838994809.894423</v>
+        <v>3419988746.481741</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1029452835986691</v>
+        <v>0.1440874728448826</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02610209928079412</v>
+        <v>0.01698973612757771</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1419497472.73976</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2872505568.896384</v>
+        <v>3539347566.594984</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1051488632544305</v>
+        <v>0.1246619277203956</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0483827392828835</v>
+        <v>0.04227779500705344</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>91</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1436252784.589043</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5635493667.854465</v>
+        <v>5771880390.086959</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1008812393351054</v>
+        <v>0.09566437265310854</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04486144295396966</v>
+        <v>0.03907920451945903</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>125</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2817746737.436282</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1958748923.835932</v>
+        <v>1603236014.980986</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1157166992562505</v>
+        <v>0.138033151504548</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03774275666329894</v>
+        <v>0.0249679699461717</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>979374494.6510425</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1267187537.720905</v>
+        <v>1436296919.904769</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1053233473465088</v>
+        <v>0.07894207979641621</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04731690002496715</v>
+        <v>0.05114432878530645</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>633593704.5124266</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1181364021.860691</v>
+        <v>1742105745.011315</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08879519305648011</v>
+        <v>0.09551627045023434</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02782845116717395</v>
+        <v>0.02968054046258048</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>590682013.2597318</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2127655914.820319</v>
+        <v>2947336220.897137</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1911133875956439</v>
+        <v>0.2018433430003297</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04019176121460125</v>
+        <v>0.03975675167016798</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1063828027.326753</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1396463640.832802</v>
+        <v>1158016565.308563</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08065651658053939</v>
+        <v>0.1192245124364212</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02399028872011064</v>
+        <v>0.02763063149499544</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>698231793.2968543</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1205036863.168164</v>
+        <v>983506460.1223986</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08951487138391409</v>
+        <v>0.104364223134348</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0353750161559462</v>
+        <v>0.03784199685327673</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>602518405.2189875</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2473396928.827657</v>
+        <v>2321246672.262819</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1397429107382786</v>
+        <v>0.1211001905076468</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02076827195607515</v>
+        <v>0.01797485366864484</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>71</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1236698488.531897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1860706175.561076</v>
+        <v>2649802310.548025</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1105914313603275</v>
+        <v>0.1005264798760103</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02747249155588315</v>
+        <v>0.03289006297682341</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>75</v>
-      </c>
-      <c r="J37" t="n">
-        <v>930353095.905707</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1691173325.773614</v>
+        <v>1955277377.481057</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1024948334785298</v>
+        <v>0.1208538865574159</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03613005673613616</v>
+        <v>0.03941077968798902</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>845586685.1340945</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2122345148.668124</v>
+        <v>1661204986.397867</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1436238801484623</v>
+        <v>0.1625050542817749</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02554766373315081</v>
+        <v>0.03316991318383894</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1061172550.323102</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1641008051.45782</v>
+        <v>1290496947.915902</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1382456952422788</v>
+        <v>0.09952807532949258</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04439554093518676</v>
+        <v>0.04474196409727119</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>820503956.6089066</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1862695776.885422</v>
+        <v>2251170084.380629</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1520343937702391</v>
+        <v>0.1221737827955087</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04356078811361782</v>
+        <v>0.03413109044186859</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>931347976.0870066</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4280799174.761376</v>
+        <v>3453543784.670963</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1271684389483866</v>
+        <v>0.1233423889821115</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03197970886105306</v>
+        <v>0.04534319817866023</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>92</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2140399635.968551</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1899431971.558424</v>
+        <v>2194524371.431621</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1277812512050443</v>
+        <v>0.1587522137675015</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01734349080359457</v>
+        <v>0.02080307885249363</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>103</v>
-      </c>
-      <c r="J43" t="n">
-        <v>949716094.8406028</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2273448049.16564</v>
+        <v>1683343100.01431</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09015713078964689</v>
+        <v>0.07045155735160775</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0311481506515657</v>
+        <v>0.03696121594668285</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1136724185.482867</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2413746805.907576</v>
+        <v>1775887399.994719</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1271759909477853</v>
+        <v>0.1919970827630399</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04925590931862327</v>
+        <v>0.04657135311956503</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1206873435.52362</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4741215279.01514</v>
+        <v>4062064044.165096</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1341706193105939</v>
+        <v>0.1580935201290304</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04556625886576382</v>
+        <v>0.05570714185037422</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>101</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2370607651.486961</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4807803119.364318</v>
+        <v>4595559344.810342</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1992113995232524</v>
+        <v>0.1283049153688407</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05046033732844087</v>
+        <v>0.05030687742651489</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>76</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2403901604.568667</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3483334517.587838</v>
+        <v>4000543352.339269</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09908079310991082</v>
+        <v>0.08816581300937866</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0248532979474961</v>
+        <v>0.03285723566934562</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>93</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1741667323.173465</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1282517960.008253</v>
+        <v>1863058977.219899</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1642471150660472</v>
+        <v>0.193622276643262</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02952904378021074</v>
+        <v>0.0311796149184752</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>641259045.845688</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3492548898.206205</v>
+        <v>4004353251.983806</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1146207149450653</v>
+        <v>0.1732548483686838</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03653362974348193</v>
+        <v>0.05299939246082563</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>97</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1746274473.878244</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1528482256.111741</v>
+        <v>1363887578.795942</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1313323358062</v>
+        <v>0.1604244846226969</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0329498495551997</v>
+        <v>0.03875426314578855</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>764241126.3628104</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4303643155.498806</v>
+        <v>4308604804.358709</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1313345442160718</v>
+        <v>0.1120685952842526</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05823272691332787</v>
+        <v>0.04091343175543791</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>117</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2151821616.355902</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2890684591.544132</v>
+        <v>2464896063.274158</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1924960124568411</v>
+        <v>0.1619962742509897</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02988897770596225</v>
+        <v>0.02283792194926657</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>81</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1445342335.774347</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3116127722.932025</v>
+        <v>4897543067.63955</v>
       </c>
       <c r="F54" t="n">
-        <v>0.125175271380294</v>
+        <v>0.1200515587777713</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04740907214489088</v>
+        <v>0.0515527048860429</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>92</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1558063856.126128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3928053214.53003</v>
+        <v>4782408008.457432</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1702291123586026</v>
+        <v>0.1608574615382961</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02935914029656997</v>
+        <v>0.02826568687049679</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1964026578.986488</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1468558803.941682</v>
+        <v>1177036381.376892</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1022419287979718</v>
+        <v>0.1353734456940028</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04510218325363704</v>
+        <v>0.04806547739409715</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>734279448.9043161</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3692493767.554296</v>
+        <v>3911955950.14976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1726346378870151</v>
+        <v>0.180474612867731</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0188211417051964</v>
+        <v>0.02008791271613696</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>90</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1846246946.322473</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1653828103.141028</v>
+        <v>1477160680.856447</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1581581953843374</v>
+        <v>0.1591730300712143</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02451458072768258</v>
+        <v>0.03668952714603042</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>826914068.6613537</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4302908340.294009</v>
+        <v>5260667861.513563</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1276289837174433</v>
+        <v>0.1239875736149606</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04668070244071792</v>
+        <v>0.04771754451554745</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2151454131.490243</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2385032515.097799</v>
+        <v>2291390424.718953</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1664619848670622</v>
+        <v>0.1689773931023076</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02621052163307115</v>
+        <v>0.02197074679486975</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1192516263.389328</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2982886687.548714</v>
+        <v>3080169656.846754</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1604451662677896</v>
+        <v>0.1631130613737432</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02296195853241962</v>
+        <v>0.02196157116585342</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>98</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1491443325.848214</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1677033140.254796</v>
+        <v>1919270731.565388</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1236901940000613</v>
+        <v>0.1234129156893866</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03172440287671494</v>
+        <v>0.0336535305176018</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>838516579.7399828</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4043076174.477412</v>
+        <v>4872486517.06904</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0684137296775542</v>
+        <v>0.0806465979608617</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03460884321404343</v>
+        <v>0.03301671810781116</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2021538147.700739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5294527887.864738</v>
+        <v>5350748734.931416</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1909335082309855</v>
+        <v>0.1741317090739372</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0273654277622179</v>
+        <v>0.02369660332609515</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>88</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2647264070.843622</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4810364386.451515</v>
+        <v>3967331344.826157</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1688879606794063</v>
+        <v>0.1655433153910216</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0209661872508937</v>
+        <v>0.02662848503259057</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>102</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2405182163.449594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4470319471.391532</v>
+        <v>4215419769.538825</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1538284479842131</v>
+        <v>0.1106386577540488</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03640838016438439</v>
+        <v>0.04498929896330407</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>82</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2235159734.511819</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3180928312.123749</v>
+        <v>2906443945.29022</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07821469496306602</v>
+        <v>0.07146146967351139</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03399305425495031</v>
+        <v>0.04301530954114677</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>91</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1590464159.040793</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4830750582.149663</v>
+        <v>5418161872.125647</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1546845201312137</v>
+        <v>0.1374149967800762</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04525628639293954</v>
+        <v>0.03542866025818653</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>94</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2415375337.201091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1924635667.741672</v>
+        <v>1551993593.962879</v>
       </c>
       <c r="F69" t="n">
-        <v>0.160699984890588</v>
+        <v>0.1754433922345341</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05959389279179881</v>
+        <v>0.04465150819707163</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>962317829.1054356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2765769556.843084</v>
+        <v>2633474512.188269</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08668660619193121</v>
+        <v>0.09453164804385364</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04745237755601268</v>
+        <v>0.04204806549640741</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>81</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1382884740.175917</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5352981214.871016</v>
+        <v>5252450439.866033</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1648713145347825</v>
+        <v>0.1170355151492183</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03282102678569426</v>
+        <v>0.02459513407504632</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2676490739.46523</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1893795896.850376</v>
+        <v>2216492094.342938</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1063239030703074</v>
+        <v>0.07279382418030408</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03956847599261143</v>
+        <v>0.0411600046891787</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>946897911.9074893</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2719788255.552689</v>
+        <v>3486258584.718679</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09934934615124057</v>
+        <v>0.08336005134747708</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03639087875901012</v>
+        <v>0.03648976239561107</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>108</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1359894149.400089</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2489881860.66195</v>
+        <v>2898461756.031723</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1339215744320558</v>
+        <v>0.1819568231228701</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03231863170639179</v>
+        <v>0.0214456922485733</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>96</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1244941039.848262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2425693418.192649</v>
+        <v>1970117269.816586</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1606544959303085</v>
+        <v>0.1196293709417777</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03040572503892062</v>
+        <v>0.03717301642344605</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1212846633.373096</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4625341680.761503</v>
+        <v>4109056491.370976</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1226470648986012</v>
+        <v>0.1023009559469537</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02433495418825165</v>
+        <v>0.03124231662933424</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2312670851.33328</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1530604461.948822</v>
+        <v>1795027666.982716</v>
       </c>
       <c r="F77" t="n">
-        <v>0.179442074958685</v>
+        <v>0.1587646277168469</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02446172248284382</v>
+        <v>0.02464591253341198</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>765302223.1517832</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3570316949.130527</v>
+        <v>3810197774.855575</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1181529446071687</v>
+        <v>0.1155570618750354</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0536141057049808</v>
+        <v>0.04624771839935036</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>98</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1785158471.041236</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1926914767.80858</v>
+        <v>1555626554.039742</v>
       </c>
       <c r="F79" t="n">
-        <v>0.17740933671179</v>
+        <v>0.1564441543546108</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03784340850989031</v>
+        <v>0.03766556537315971</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>963457492.7482779</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5115001724.916933</v>
+        <v>4951144296.074794</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1051121046681776</v>
+        <v>0.09765251645752082</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03625701234574856</v>
+        <v>0.03775442013705244</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2557500917.375025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3333287450.243681</v>
+        <v>3236941229.351837</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1072918887352984</v>
+        <v>0.1300540341572487</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02238455861314672</v>
+        <v>0.0249166340105908</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1666643663.587603</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4260629754.396531</v>
+        <v>5470162093.788905</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1572797585285802</v>
+        <v>0.2090676187215326</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02187137902641337</v>
+        <v>0.02343045618144214</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>99</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2130314902.405928</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2274852349.71883</v>
+        <v>1714749803.830347</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1504894246414631</v>
+        <v>0.1161207679061491</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04233575748075324</v>
+        <v>0.04315342504964585</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1137426194.409082</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1785783369.309658</v>
+        <v>2589547986.119567</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09824470343168511</v>
+        <v>0.07725700011960053</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03993856342512315</v>
+        <v>0.04841959548856632</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>892891721.019681</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2330861861.260189</v>
+        <v>2872310227.654243</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1688628780272485</v>
+        <v>0.1130716267942185</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03703716395652437</v>
+        <v>0.05471347533788202</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>106</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1165430916.898252</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1727053671.028497</v>
+        <v>2115392354.206355</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1481361484562977</v>
+        <v>0.1242326801724123</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02176471024513435</v>
+        <v>0.02335868101247738</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>36</v>
-      </c>
-      <c r="J86" t="n">
-        <v>863526825.1925547</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1460635319.337183</v>
+        <v>1083612627.502591</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1387118392721674</v>
+        <v>0.1771454127896874</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04391589988880091</v>
+        <v>0.042897797137839</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>730317782.0538665</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3578726388.920379</v>
+        <v>2594275251.01539</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1355767677921146</v>
+        <v>0.1604540779944303</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03919381169761237</v>
+        <v>0.03778529478742496</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>112</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1789363282.08904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3267267143.017069</v>
+        <v>3336334285.211504</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1088237669959775</v>
+        <v>0.1252242814809464</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03156561787324598</v>
+        <v>0.03797756914688813</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>96</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1633633590.026737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2030018577.403511</v>
+        <v>1836121775.220011</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1369826639584208</v>
+        <v>0.09265176362554846</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04733234163357015</v>
+        <v>0.03626328628901618</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1015009364.441696</v>
       </c>
     </row>
     <row r="91">
@@ -3522,22 +2978,16 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1674186776.760497</v>
+        <v>1377234672.319646</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1910936857241499</v>
+        <v>0.1803373303018295</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05696525890930478</v>
+        <v>0.05268185833063092</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>837093404.0674417</v>
       </c>
     </row>
     <row r="92">
@@ -3556,22 +3006,16 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2176889364.687748</v>
+        <v>2342055092.180429</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06777469570712574</v>
+        <v>0.07728294747626857</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03210380240203066</v>
+        <v>0.04361202156794376</v>
       </c>
       <c r="H92" t="b">
-        <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>71</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1088444641.865784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4746517230.825314</v>
+        <v>4894904705.352361</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1328649119694443</v>
+        <v>0.1332723234146656</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05459430734699044</v>
+        <v>0.04896355528676955</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>88</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2373258567.766955</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1788203268.620984</v>
+        <v>2304964269.344331</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1180147481693725</v>
+        <v>0.1685864413392182</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03027917930163148</v>
+        <v>0.04018432251497361</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>894101605.0984805</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2457432204.321125</v>
+        <v>2087313430.853204</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1155607158023193</v>
+        <v>0.09655080754915409</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03776030870683501</v>
+        <v>0.03487985402227243</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1228716141.37553</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2201114093.831436</v>
+        <v>2089027423.299121</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1213120228571759</v>
+        <v>0.08687788512750109</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0289907109908474</v>
+        <v>0.04074189890902894</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1100557012.41609</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5025581121.199721</v>
+        <v>4232636357.008422</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1605461333632569</v>
+        <v>0.1740678922228714</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02018038939714104</v>
+        <v>0.02198589459782032</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2512790699.446576</v>
       </c>
     </row>
     <row r="98">
@@ -3760,22 +3174,16 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2873733209.861253</v>
+        <v>3804321022.343412</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08959483389227159</v>
+        <v>0.07822534128902482</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02865415358981588</v>
+        <v>0.02502419419787383</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>76</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1436866581.086128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2198307801.216651</v>
+        <v>2932426967.101882</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1410489956827087</v>
+        <v>0.1341133638048186</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03503146086347419</v>
+        <v>0.02211964274973889</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>89</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1099153828.480621</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3132822964.834495</v>
+        <v>3208549598.399856</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1148755111432173</v>
+        <v>0.1494340861799821</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01863868247848165</v>
+        <v>0.02563590382855955</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>88</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1566411483.841026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2244507673.212201</v>
+        <v>3222411442.777892</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2016029486806239</v>
+        <v>0.1345884834614944</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0579905026253722</v>
+        <v>0.04648596650990105</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>113</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1122253825.826903</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_283.xlsx
+++ b/output/fit_clients/fit_round_283.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1948713704.996539</v>
+        <v>2122318523.935957</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08118111033313896</v>
+        <v>0.07688670467586468</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02815989869172687</v>
+        <v>0.03113100061922202</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,16 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1943524183.811311</v>
+        <v>2599481657.921779</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1573891302439439</v>
+        <v>0.132637737765024</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0426286134870645</v>
+        <v>0.04547866056509664</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3243311080.131835</v>
+        <v>5057314073.887876</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1424255711040682</v>
+        <v>0.1354432572385497</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03087653228596488</v>
+        <v>0.02510819938264998</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2559779773.06105</v>
+        <v>3664875127.290305</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0734492391007283</v>
+        <v>0.08245873685194438</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04306858045774304</v>
+        <v>0.05092313466210318</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2458446536.948248</v>
+        <v>2043219826.799804</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1028492079522331</v>
+        <v>0.1354677149858949</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03470410987422923</v>
+        <v>0.04493643805658455</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2471134946.307094</v>
+        <v>3000362340.150629</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1002335908065285</v>
+        <v>0.09023472798083569</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04485617473254171</v>
+        <v>0.04885190923725587</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2773342082.329469</v>
+        <v>3314436749.264087</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2080464178871871</v>
+        <v>0.1672863498269547</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02889130551528584</v>
+        <v>0.02045619220935992</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2132960132.365099</v>
+        <v>2117184995.147881</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1699588596184505</v>
+        <v>0.1873439552177213</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02581137768123403</v>
+        <v>0.03308064695751961</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4877301722.960197</v>
+        <v>4151921446.697991</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1565425854721906</v>
+        <v>0.1510481346597409</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04355811488914755</v>
+        <v>0.05179543803542194</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3568320938.297012</v>
+        <v>2950410394.340838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1881963845094811</v>
+        <v>0.1534161829202665</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0473591246288431</v>
+        <v>0.0311987059138255</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,22 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2953872478.7939</v>
+        <v>2820452618.334194</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1870067552559854</v>
+        <v>0.1673577758968984</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05384991807024428</v>
+        <v>0.04106410785437648</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3283589659.49395</v>
+        <v>4991943458.315406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09967852547943647</v>
+        <v>0.100571886807735</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02375447617535019</v>
+        <v>0.02683192408249912</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2597779608.555553</v>
+        <v>3148769801.687979</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1545392484097703</v>
+        <v>0.1443880739826658</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03165559582796878</v>
+        <v>0.03884148758985253</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,22 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1245909074.60857</v>
+        <v>1184892168.985393</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06743072374076987</v>
+        <v>0.09020667163421479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04657092249095564</v>
+        <v>0.04132785104621452</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2805493830.461726</v>
+        <v>1850223580.974882</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07353042751279547</v>
+        <v>0.0789812863502046</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04588011664756935</v>
+        <v>0.04150350824568413</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4872982887.906324</v>
+        <v>3700970764.971637</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731198740786223</v>
+        <v>0.1464186477826414</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0464196877428882</v>
+        <v>0.0387167139390581</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3597743040.363384</v>
+        <v>3242813085.499395</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1747972527948693</v>
+        <v>0.1769234432124987</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02975499210656521</v>
+        <v>0.02550113130915551</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>927668314.1813642</v>
+        <v>1281699488.732134</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1605107825253795</v>
+        <v>0.1894089189066184</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02691096807426294</v>
+        <v>0.02424525557555757</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,22 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2383637028.080351</v>
+        <v>2543214247.105288</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1534002021669546</v>
+        <v>0.124659906328001</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02957096190078285</v>
+        <v>0.02596670211446531</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1800559903.404235</v>
+        <v>1865308013.245901</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09701343915957621</v>
+        <v>0.08907310215032302</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04111320765603851</v>
+        <v>0.03345204823879192</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3156474892.920186</v>
+        <v>3986061763.668738</v>
       </c>
       <c r="F22" t="n">
-        <v>0.135404966259244</v>
+        <v>0.1138730411249371</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03639670564442936</v>
+        <v>0.03586437464842365</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1317341174.3089</v>
+        <v>1010409171.894073</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1784481454226503</v>
+        <v>0.1439790515471311</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05248050219084422</v>
+        <v>0.04110485887612281</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3590290729.25996</v>
+        <v>2686069257.04644</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1003333460693023</v>
+        <v>0.1071104171379406</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02575515509702707</v>
+        <v>0.03669597796462835</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1419822457.130779</v>
+        <v>1129231540.266722</v>
       </c>
       <c r="F25" t="n">
-        <v>0.118676476658453</v>
+        <v>0.09752115217212383</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02042423786513922</v>
+        <v>0.0250920946264258</v>
       </c>
       <c r="H25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1118908123.774378</v>
+        <v>1022822236.392237</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07685908386848248</v>
+        <v>0.1007114847052515</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02926430025993027</v>
+        <v>0.03205007998639075</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3419988746.481741</v>
+        <v>4517658091.7385</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1440874728448826</v>
+        <v>0.1061504101827309</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01698973612757771</v>
+        <v>0.02488076277568373</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3539347566.594984</v>
+        <v>3251638916.517374</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1246619277203956</v>
+        <v>0.1241864566957364</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04227779500705344</v>
+        <v>0.04764042902098969</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5771880390.086959</v>
+        <v>4500007211.478815</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09566437265310854</v>
+        <v>0.109650481131471</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03907920451945903</v>
+        <v>0.0411402135751267</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1603236014.980986</v>
+        <v>1732809493.751837</v>
       </c>
       <c r="F30" t="n">
-        <v>0.138033151504548</v>
+        <v>0.1309517093021489</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0249679699461717</v>
+        <v>0.03045989966279919</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1436296919.904769</v>
+        <v>1047288392.271775</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07894207979641621</v>
+        <v>0.09850471354412627</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05114432878530645</v>
+        <v>0.04743394398872972</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1742105745.011315</v>
+        <v>1481773713.374307</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09551627045023434</v>
+        <v>0.1052890075871677</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02968054046258048</v>
+        <v>0.02340696694970735</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2947336220.897137</v>
+        <v>2783400737.57387</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2018433430003297</v>
+        <v>0.1923591367094334</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03975675167016798</v>
+        <v>0.04000914486697918</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1158016565.308563</v>
+        <v>1228761982.214398</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1192245124364212</v>
+        <v>0.08814638459941154</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02763063149499544</v>
+        <v>0.02466299809719788</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>983506460.1223986</v>
+        <v>1296497681.373769</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104364223134348</v>
+        <v>0.09320762100638387</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03784199685327673</v>
+        <v>0.03868616299829416</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2321246672.262819</v>
+        <v>2127751421.640197</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1211001905076468</v>
+        <v>0.1126366229920686</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01797485366864484</v>
+        <v>0.02274609809114556</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2649802310.548025</v>
+        <v>1814523280.965271</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1005264798760103</v>
+        <v>0.1039339563419135</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03289006297682341</v>
+        <v>0.02804044037030223</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,22 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1955277377.481057</v>
+        <v>1551078459.504657</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1208538865574159</v>
+        <v>0.09346987555600587</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03941077968798902</v>
+        <v>0.02788984020591458</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1661204986.397867</v>
+        <v>1616473687.885138</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1625050542817749</v>
+        <v>0.1706259062959972</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03316991318383894</v>
+        <v>0.02178803704147234</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1290496947.915902</v>
+        <v>1757560802.02128</v>
       </c>
       <c r="F40" t="n">
-        <v>0.09952807532949258</v>
+        <v>0.1075626632760685</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04474196409727119</v>
+        <v>0.037351283579175</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2251170084.380629</v>
+        <v>2581373939.875304</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1221737827955087</v>
+        <v>0.1085681106548647</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03413109044186859</v>
+        <v>0.03573579614631431</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3453543784.670963</v>
+        <v>4119036855.661131</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1233423889821115</v>
+        <v>0.1038326311979966</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04534319817866023</v>
+        <v>0.0382217681871473</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2194524371.431621</v>
+        <v>2469788819.459134</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1587522137675015</v>
+        <v>0.1241006938319461</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02080307885249363</v>
+        <v>0.01770088617355585</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1683343100.01431</v>
+        <v>1502545029.00586</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07045155735160775</v>
+        <v>0.07916401578848657</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03696121594668285</v>
+        <v>0.02952718731370425</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1775887399.994719</v>
+        <v>1997649807.120887</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1919970827630399</v>
+        <v>0.1472893260494828</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04657135311956503</v>
+        <v>0.0400612199502484</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4062064044.165096</v>
+        <v>5013507299.586722</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1580935201290304</v>
+        <v>0.1252963499261873</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05570714185037422</v>
+        <v>0.06117843096886232</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4595559344.810342</v>
+        <v>3720891924.590338</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1283049153688407</v>
+        <v>0.1442661694979562</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05030687742651489</v>
+        <v>0.05243428917974619</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4000543352.339269</v>
+        <v>3223783992.369036</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08816581300937866</v>
+        <v>0.09326204055477744</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03285723566934562</v>
+        <v>0.03514726673517835</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1863058977.219899</v>
+        <v>1887112570.289471</v>
       </c>
       <c r="F49" t="n">
-        <v>0.193622276643262</v>
+        <v>0.1278987152806884</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0311796149184752</v>
+        <v>0.03712684502143928</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4004353251.983806</v>
+        <v>4010796135.583132</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1732548483686838</v>
+        <v>0.1336689517920128</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05299939246082563</v>
+        <v>0.05248908125549781</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1363887578.795942</v>
+        <v>952743056.127256</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1604244846226969</v>
+        <v>0.1630067911600565</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03875426314578855</v>
+        <v>0.04049837337371977</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4308604804.358709</v>
+        <v>4024234695.911368</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1120685952842526</v>
+        <v>0.1057356414348378</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04091343175543791</v>
+        <v>0.04183120525421814</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2464896063.274158</v>
+        <v>3558169294.43655</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1619962742509897</v>
+        <v>0.1988747647937145</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02283792194926657</v>
+        <v>0.02798984676254438</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4897543067.63955</v>
+        <v>4671681108.258682</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1200515587777713</v>
+        <v>0.1330492204732988</v>
       </c>
       <c r="G54" t="n">
-        <v>0.0515527048860429</v>
+        <v>0.04856082833684747</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4782408008.457432</v>
+        <v>3376505508.703743</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1608574615382961</v>
+        <v>0.1770466506847551</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02826568687049679</v>
+        <v>0.02381454346432095</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1177036381.376892</v>
+        <v>1598216861.039718</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1353734456940028</v>
+        <v>0.1221516348073057</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04806547739409715</v>
+        <v>0.03821240824076776</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,22 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3911955950.14976</v>
+        <v>4144265605.168263</v>
       </c>
       <c r="F57" t="n">
-        <v>0.180474612867731</v>
+        <v>0.143164084904043</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02008791271613696</v>
+        <v>0.02684665917285095</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1477160680.856447</v>
+        <v>1496848870.309022</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1591730300712143</v>
+        <v>0.2005157882509309</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03668952714603042</v>
+        <v>0.0240108748246019</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5260667861.513563</v>
+        <v>4533502735.537625</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1239875736149606</v>
+        <v>0.09300569358960085</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04771754451554745</v>
+        <v>0.04719218019926313</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2291390424.718953</v>
+        <v>2704270649.097546</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1689773931023076</v>
+        <v>0.166189732470104</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02197074679486975</v>
+        <v>0.03148702280374487</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3080169656.846754</v>
+        <v>3296455738.540816</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1631130613737432</v>
+        <v>0.129772801806902</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02196157116585342</v>
+        <v>0.02038566271079446</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1919270731.565388</v>
+        <v>1780884396.386061</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1234129156893866</v>
+        <v>0.1929884822302889</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0336535305176018</v>
+        <v>0.04401483396837919</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4872486517.06904</v>
+        <v>5129509397.154578</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0806465979608617</v>
+        <v>0.07619773592351414</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03301671810781116</v>
+        <v>0.04644242623541245</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5350748734.931416</v>
+        <v>4682111030.730734</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1741317090739372</v>
+        <v>0.1813559811153143</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02369660332609515</v>
+        <v>0.02724013891056141</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3967331344.826157</v>
+        <v>4675020893.617431</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1655433153910216</v>
+        <v>0.1136830389877586</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02662848503259057</v>
+        <v>0.02304264413465434</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4215419769.538825</v>
+        <v>3720166645.212467</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1106386577540488</v>
+        <v>0.1019487857908359</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04498929896330407</v>
+        <v>0.0307875608801208</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2906443945.29022</v>
+        <v>3502641203.0942</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07146146967351139</v>
+        <v>0.07488171300824026</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04301530954114677</v>
+        <v>0.04181052152650125</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5418161872.125647</v>
+        <v>4638981740.418559</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1374149967800762</v>
+        <v>0.1533567620094896</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03542866025818653</v>
+        <v>0.03226791750953999</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1551993593.962879</v>
+        <v>1790208909.421928</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1754433922345341</v>
+        <v>0.1686997984129586</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04465150819707163</v>
+        <v>0.05436090879572451</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2633474512.188269</v>
+        <v>3409654714.690604</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09453164804385364</v>
+        <v>0.0757761616190873</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04204806549640741</v>
+        <v>0.04853491120610513</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5252450439.866033</v>
+        <v>4023801939.790451</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1170355151492183</v>
+        <v>0.1182330063618108</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02459513407504632</v>
+        <v>0.0298322028507373</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2216492094.342938</v>
+        <v>1777216153.456576</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07279382418030408</v>
+        <v>0.07868976498506176</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0411600046891787</v>
+        <v>0.04987203722369737</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3486258584.718679</v>
+        <v>3565907552.028671</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08336005134747708</v>
+        <v>0.0905161018208552</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03648976239561107</v>
+        <v>0.04744235841896583</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2898461756.031723</v>
+        <v>3069927700.693279</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1819568231228701</v>
+        <v>0.1345958077390769</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0214456922485733</v>
+        <v>0.02465669006529228</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1970117269.816586</v>
+        <v>1785499552.846367</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1196293709417777</v>
+        <v>0.1352433931854561</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03717301642344605</v>
+        <v>0.03614676443431491</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4109056491.370976</v>
+        <v>4269988095.504982</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1023009559469537</v>
+        <v>0.1187115496519119</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03124231662933424</v>
+        <v>0.03141139215994738</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1795027666.982716</v>
+        <v>1571100947.400797</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1587646277168469</v>
+        <v>0.1774931856229829</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02464591253341198</v>
+        <v>0.02235653777463113</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3810197774.855575</v>
+        <v>4418529112.150568</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1155570618750354</v>
+        <v>0.08555766828758639</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04624771839935036</v>
+        <v>0.03635556403154461</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1555626554.039742</v>
+        <v>1284418394.089548</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1564441543546108</v>
+        <v>0.1367146924156768</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03766556537315971</v>
+        <v>0.02633461209197523</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4951144296.074794</v>
+        <v>3953675343.965775</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09765251645752082</v>
+        <v>0.0688481077692038</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03775442013705244</v>
+        <v>0.03011441827890407</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3236941229.351837</v>
+        <v>3431820514.257693</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1300540341572487</v>
+        <v>0.126162550354706</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0249166340105908</v>
+        <v>0.02121557047649007</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5470162093.788905</v>
+        <v>5570749408.187737</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2090676187215326</v>
+        <v>0.2020816340364652</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02343045618144214</v>
+        <v>0.02874505846970518</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1714749803.830347</v>
+        <v>1933744884.35545</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1161207679061491</v>
+        <v>0.1318101177288916</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04315342504964585</v>
+        <v>0.04134625758411075</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2589547986.119567</v>
+        <v>2187686932.980717</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07725700011960053</v>
+        <v>0.104524004688714</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04841959548856632</v>
+        <v>0.04344317227564827</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2872310227.654243</v>
+        <v>3047764402.990432</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1130716267942185</v>
+        <v>0.1580339124170777</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05471347533788202</v>
+        <v>0.03913557517020549</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2115392354.206355</v>
+        <v>1874108358.661735</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1242326801724123</v>
+        <v>0.1624796218944607</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02335868101247738</v>
+        <v>0.02239625167900837</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1083612627.502591</v>
+        <v>1397044395.951284</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1771454127896874</v>
+        <v>0.1197668666063793</v>
       </c>
       <c r="G87" t="n">
-        <v>0.042897797137839</v>
+        <v>0.03311005440918031</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2594275251.01539</v>
+        <v>3239986863.536047</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1604540779944303</v>
+        <v>0.1785590464170173</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03778529478742496</v>
+        <v>0.03237796851466668</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3336334285.211504</v>
+        <v>2132672271.886392</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1252242814809464</v>
+        <v>0.1508237324351422</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03797756914688813</v>
+        <v>0.03898615488222414</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1836121775.220011</v>
+        <v>2168814216.405091</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09265176362554846</v>
+        <v>0.1288415571399804</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03626328628901618</v>
+        <v>0.05004639752660883</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1377234672.319646</v>
+        <v>1284206520.475009</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1803373303018295</v>
+        <v>0.1432923032247099</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05268185833063092</v>
+        <v>0.05929706894548485</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2342055092.180429</v>
+        <v>2513448540.31849</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07728294747626857</v>
+        <v>0.0960159201894776</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04361202156794376</v>
+        <v>0.04630682849826391</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4894904705.352361</v>
+        <v>4601782905.109446</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1332723234146656</v>
+        <v>0.09936718457908668</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04896355528676955</v>
+        <v>0.04297797141333713</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2304964269.344331</v>
+        <v>1852977327.004706</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1685864413392182</v>
+        <v>0.1340406182471822</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04018432251497361</v>
+        <v>0.03293597199506945</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2087313430.853204</v>
+        <v>3282626393.674261</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09655080754915409</v>
+        <v>0.1005589574799362</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03487985402227243</v>
+        <v>0.04295218315652131</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2089027423.299121</v>
+        <v>2195733272.545223</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08687788512750109</v>
+        <v>0.1380402699473574</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04074189890902894</v>
+        <v>0.04002136788922922</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4232636357.008422</v>
+        <v>3374234387.721924</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1740678922228714</v>
+        <v>0.1282907416121349</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02198589459782032</v>
+        <v>0.02606429805586793</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3804321022.343412</v>
+        <v>3206161088.349166</v>
       </c>
       <c r="F98" t="n">
-        <v>0.07822534128902482</v>
+        <v>0.1086707038897904</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02502419419787383</v>
+        <v>0.0247236592685967</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2932426967.101882</v>
+        <v>2245095125.420587</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1341133638048186</v>
+        <v>0.1282251174175222</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02211964274973889</v>
+        <v>0.03477354026970332</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3208549598.399856</v>
+        <v>4330556107.918092</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1494340861799821</v>
+        <v>0.1721368643141163</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02563590382855955</v>
+        <v>0.02034459142143505</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3222411442.777892</v>
+        <v>2194423480.128596</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1345884834614944</v>
+        <v>0.2183529032747588</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04648596650990105</v>
+        <v>0.0576379122792231</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_283.xlsx
+++ b/output/fit_clients/fit_round_283.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2122318523.935957</v>
+        <v>2096709068.074607</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07688670467586468</v>
+        <v>0.07867080795532123</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03113100061922202</v>
+        <v>0.02859822602746545</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2599481657.921779</v>
+        <v>2504035973.268948</v>
       </c>
       <c r="F3" t="n">
-        <v>0.132637737765024</v>
+        <v>0.152691229098795</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04547866056509664</v>
+        <v>0.03841470497075752</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5057314073.887876</v>
+        <v>5119837156.517611</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1354432572385497</v>
+        <v>0.1359074885642012</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02510819938264998</v>
+        <v>0.03331045280983329</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>150</v>
+      </c>
+      <c r="J4" t="n">
+        <v>283</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,22 +600,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3664875127.290305</v>
+        <v>4043774281.974597</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08245873685194438</v>
+        <v>0.1096857663779773</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05092313466210318</v>
+        <v>0.03162109927864466</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>114</v>
+      </c>
+      <c r="J5" t="n">
+        <v>283</v>
+      </c>
+      <c r="K5" t="n">
+        <v>99.12306377451405</v>
       </c>
     </row>
     <row r="6">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2043219826.799804</v>
+        <v>2121135098.692994</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1354677149858949</v>
+        <v>0.1067753927327759</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04493643805658455</v>
+        <v>0.05481782123436219</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +678,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3000362340.150629</v>
+        <v>2257721397.301911</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09023472798083569</v>
+        <v>0.1013529766064362</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04885190923725587</v>
+        <v>0.03269647390485492</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3314436749.264087</v>
+        <v>3436040008.730078</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1672863498269547</v>
+        <v>0.2037709069580173</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02045619220935992</v>
+        <v>0.03280900068532852</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>282</v>
+      </c>
+      <c r="K8" t="n">
+        <v>64.52476420600475</v>
       </c>
     </row>
     <row r="9">
@@ -682,17 +750,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2117184995.147881</v>
+        <v>2000281171.815202</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1873439552177213</v>
+        <v>0.1950188268124821</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03308064695751961</v>
+        <v>0.03249207428173107</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4151921446.697991</v>
+        <v>4213603938.580814</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1510481346597409</v>
+        <v>0.16896307282822</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05179543803542194</v>
+        <v>0.04770997059274874</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>254</v>
+      </c>
+      <c r="J10" t="n">
+        <v>283</v>
+      </c>
+      <c r="K10" t="n">
+        <v>91.47895827077137</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +816,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2950410394.340838</v>
+        <v>3687765976.289817</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1534161829202665</v>
+        <v>0.1442793818292633</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0311987059138255</v>
+        <v>0.04587691857253591</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>113</v>
+      </c>
+      <c r="J11" t="n">
+        <v>283</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2820452618.334194</v>
+        <v>2589271118.23351</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1673577758968984</v>
+        <v>0.1804934729642357</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04106410785437648</v>
+        <v>0.03636972698615445</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4991943458.315406</v>
+        <v>5086945967.349907</v>
       </c>
       <c r="F13" t="n">
-        <v>0.100571886807735</v>
+        <v>0.08641765538358617</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02683192408249912</v>
+        <v>0.02660751946549417</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>144</v>
+      </c>
+      <c r="J13" t="n">
+        <v>283</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3148769801.687979</v>
+        <v>2639955161.56346</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1443880739826658</v>
+        <v>0.1873740373560243</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03884148758985253</v>
+        <v>0.02833132302228723</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>57</v>
+      </c>
+      <c r="J14" t="n">
+        <v>276</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1184892168.985393</v>
+        <v>1285739313.578947</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09020667163421479</v>
+        <v>0.08270098193803925</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04132785104621452</v>
+        <v>0.03396986232683698</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1850223580.974882</v>
+        <v>2554496344.482875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0789812863502046</v>
+        <v>0.1143371829245595</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04150350824568413</v>
+        <v>0.03607228216334748</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1032,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3700970764.971637</v>
+        <v>3597671125.490041</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1464186477826414</v>
+        <v>0.1653482237903788</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0387167139390581</v>
+        <v>0.03906817657497944</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>135</v>
+      </c>
+      <c r="J17" t="n">
+        <v>283</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -934,17 +1067,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3242813085.499395</v>
+        <v>3006643941.684704</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1769234432124987</v>
+        <v>0.1239456259111911</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02550113130915551</v>
+        <v>0.03046399330371494</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>71</v>
+      </c>
+      <c r="J18" t="n">
+        <v>275</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1096,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1281699488.732134</v>
+        <v>1373450995.653748</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1894089189066184</v>
+        <v>0.1514658952672969</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02424525557555757</v>
+        <v>0.01843764859713685</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1131,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2543214247.105288</v>
+        <v>2022261184.606075</v>
       </c>
       <c r="F20" t="n">
-        <v>0.124659906328001</v>
+        <v>0.1467687992018047</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02596670211446531</v>
+        <v>0.02757028673650697</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1166,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1865308013.245901</v>
+        <v>1862406755.964784</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08907310215032302</v>
+        <v>0.07259353589897774</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03345204823879192</v>
+        <v>0.04206870398986645</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,22 +1201,31 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3986061763.668738</v>
+        <v>3753967869.206044</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1138730411249371</v>
+        <v>0.1329266576159431</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03586437464842365</v>
+        <v>0.04144167300124911</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>282</v>
+      </c>
+      <c r="K22" t="n">
+        <v>69.57409831352801</v>
       </c>
     </row>
     <row r="23">
@@ -1068,23 +1238,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1010409171.894073</v>
+        <v>1552733697.063964</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1439790515471311</v>
+        <v>0.1278944781699577</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04110485887612281</v>
+        <v>0.04505166068705559</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,16 +1279,25 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2686069257.04644</v>
+        <v>3739581145.427962</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1071104171379406</v>
+        <v>0.1246911881349475</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03669597796462835</v>
+        <v>0.02707363308901466</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>282</v>
+      </c>
+      <c r="K24" t="n">
+        <v>68.6581110800503</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1129231540.266722</v>
+        <v>1454903114.400406</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09752115217212383</v>
+        <v>0.09133183314860895</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0250920946264258</v>
+        <v>0.02970591290553479</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1022822236.392237</v>
+        <v>969994711.8176996</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1007114847052515</v>
+        <v>0.1088211763703226</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03205007998639075</v>
+        <v>0.02682712971851583</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4517658091.7385</v>
+        <v>3770491213.935867</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1061504101827309</v>
+        <v>0.1173103286909727</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02488076277568373</v>
+        <v>0.02109045066328222</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>115</v>
+      </c>
+      <c r="J27" t="n">
+        <v>283</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3251638916.517374</v>
+        <v>3583291711.883218</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1241864566957364</v>
+        <v>0.1182743289645994</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04764042902098969</v>
+        <v>0.03944743754925431</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>58</v>
+      </c>
+      <c r="J28" t="n">
+        <v>281</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1450,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4500007211.478815</v>
+        <v>4451372602.326721</v>
       </c>
       <c r="F29" t="n">
-        <v>0.109650481131471</v>
+        <v>0.1173727541224129</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0411402135751267</v>
+        <v>0.0430862872912386</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>269</v>
+      </c>
+      <c r="J29" t="n">
+        <v>283</v>
+      </c>
+      <c r="K29" t="n">
+        <v>91.09880158704922</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1732809493.751837</v>
+        <v>1755286244.503263</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1309517093021489</v>
+        <v>0.08819659598636932</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03045989966279919</v>
+        <v>0.039593166617088</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1047288392.271775</v>
+        <v>1245989664.640127</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09850471354412627</v>
+        <v>0.09644849879359435</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04743394398872972</v>
+        <v>0.04474521085329396</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1481773713.374307</v>
+        <v>1616984707.679626</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1052890075871677</v>
+        <v>0.07806158461888485</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02340696694970735</v>
+        <v>0.0279762153462161</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2783400737.57387</v>
+        <v>2838704487.742141</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1923591367094334</v>
+        <v>0.1401625514845795</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04000914486697918</v>
+        <v>0.04283823114107645</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1633,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1228761982.214398</v>
+        <v>1222664017.727417</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08814638459941154</v>
+        <v>0.1203943212019337</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02466299809719788</v>
+        <v>0.01942071926643483</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1296497681.373769</v>
+        <v>1138216100.343771</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09320762100638387</v>
+        <v>0.1007755573917674</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03868616299829416</v>
+        <v>0.03917930276784778</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2127751421.640197</v>
+        <v>2418363328.057255</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1126366229920686</v>
+        <v>0.1453898734236219</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02274609809114556</v>
+        <v>0.02023920240885059</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1738,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1814523280.965271</v>
+        <v>2345188471.797367</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1039339563419135</v>
+        <v>0.1005343873303238</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02804044037030223</v>
+        <v>0.0290290845720727</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1767,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1551078459.504657</v>
+        <v>1590485501.862573</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09346987555600587</v>
+        <v>0.1023051137588798</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02788984020591458</v>
+        <v>0.02744123661891556</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1616473687.885138</v>
+        <v>2114468399.663387</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1706259062959972</v>
+        <v>0.1397237208395768</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02178803704147234</v>
+        <v>0.03080353478341801</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1757560802.02128</v>
+        <v>1719147643.220713</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1075626632760685</v>
+        <v>0.116939040833835</v>
       </c>
       <c r="G40" t="n">
-        <v>0.037351283579175</v>
+        <v>0.05618057798254481</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2581373939.875304</v>
+        <v>2595835497.501832</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1085681106548647</v>
+        <v>0.1376825201232546</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03573579614631431</v>
+        <v>0.03463355235964672</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1907,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4119036855.661131</v>
+        <v>3341455013.308419</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1038326311979966</v>
+        <v>0.08723959390836246</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0382217681871473</v>
+        <v>0.03645061417474209</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1948,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2469788819.459134</v>
+        <v>2081790828.904663</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1241006938319461</v>
+        <v>0.1341430424623473</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01770088617355585</v>
+        <v>0.02061654085025986</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1977,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1502545029.00586</v>
+        <v>1838672256.413399</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07916401578848657</v>
+        <v>0.09497091951230884</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02952718731370425</v>
+        <v>0.03380675251240938</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2012,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1997649807.120887</v>
+        <v>2340170764.869344</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1472893260494828</v>
+        <v>0.1808413959519719</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0400612199502484</v>
+        <v>0.03838943690730711</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2047,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5013507299.586722</v>
+        <v>5053906724.56007</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1252963499261873</v>
+        <v>0.1202331956867543</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06117843096886232</v>
+        <v>0.04682680390519112</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>166</v>
+      </c>
+      <c r="J46" t="n">
+        <v>283</v>
+      </c>
+      <c r="K46" t="n">
+        <v>91.83662263810676</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2084,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3720891924.590338</v>
+        <v>3578407550.453561</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1442661694979562</v>
+        <v>0.134044578189741</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05243428917974619</v>
+        <v>0.05153493257734742</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>127</v>
+      </c>
+      <c r="J47" t="n">
+        <v>281</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2125,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3223783992.369036</v>
+        <v>3955800642.800536</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09326204055477744</v>
+        <v>0.08906535951353778</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03514726673517835</v>
+        <v>0.03234004302830298</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>140</v>
+      </c>
+      <c r="J48" t="n">
+        <v>283</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1887112570.289471</v>
+        <v>1334178979.126342</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1278987152806884</v>
+        <v>0.1640653059102205</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03712684502143928</v>
+        <v>0.03957615821106755</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2189,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4010796135.583132</v>
+        <v>4095105594.814553</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1336689517920128</v>
+        <v>0.1079077549646925</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05248908125549781</v>
+        <v>0.05054486515387401</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>90</v>
+      </c>
+      <c r="J50" t="n">
+        <v>283</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>952743056.127256</v>
+        <v>1148687822.393833</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1630067911600565</v>
+        <v>0.155836394337917</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04049837337371977</v>
+        <v>0.03326149431798212</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2259,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4024234695.911368</v>
+        <v>3233080464.200816</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1057356414348378</v>
+        <v>0.1035856097658053</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04183120525421814</v>
+        <v>0.06160736857270196</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>177</v>
+      </c>
+      <c r="J52" t="n">
+        <v>281</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,22 +2294,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3558169294.43655</v>
+        <v>2320373175.455699</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1988747647937145</v>
+        <v>0.1707638900387242</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02798984676254438</v>
+        <v>0.0222397281428191</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="n">
+        <v>28.14249327049977</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2331,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4671681108.258682</v>
+        <v>4367698231.361673</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1330492204732988</v>
+        <v>0.113816491198067</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04856082833684747</v>
+        <v>0.04279601728760067</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>149</v>
+      </c>
+      <c r="J54" t="n">
+        <v>283</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2372,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3376505508.703743</v>
+        <v>4841334523.40852</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1770466506847551</v>
+        <v>0.20218149118843</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02381454346432095</v>
+        <v>0.03053027195170184</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>128</v>
+      </c>
+      <c r="J55" t="n">
+        <v>283</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1598216861.039718</v>
+        <v>1377217424.811834</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1221516348073057</v>
+        <v>0.1293619980202264</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03821240824076776</v>
+        <v>0.05517127037419144</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4144265605.168263</v>
+        <v>2873232001.305991</v>
       </c>
       <c r="F57" t="n">
-        <v>0.143164084904043</v>
+        <v>0.1235094645379291</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02684665917285095</v>
+        <v>0.01972206307583545</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>115</v>
+      </c>
+      <c r="J57" t="n">
+        <v>282</v>
+      </c>
+      <c r="K57" t="n">
+        <v>42.83654181727915</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1496848870.309022</v>
+        <v>1428405890.32473</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2005157882509309</v>
+        <v>0.1984583765042509</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0240108748246019</v>
+        <v>0.02788276454828408</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4533502735.537625</v>
+        <v>4299568084.954203</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09300569358960085</v>
+        <v>0.1005903698932803</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04719218019926313</v>
+        <v>0.04508504947743373</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>136</v>
+      </c>
+      <c r="J59" t="n">
+        <v>283</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2110,17 +2549,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2704270649.097546</v>
+        <v>3609935822.221739</v>
       </c>
       <c r="F60" t="n">
-        <v>0.166189732470104</v>
+        <v>0.1808164718475567</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03148702280374487</v>
+        <v>0.02791890963770771</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>46</v>
+      </c>
+      <c r="J60" t="n">
+        <v>283</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2578,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3296455738.540816</v>
+        <v>2597167041.571438</v>
       </c>
       <c r="F61" t="n">
-        <v>0.129772801806902</v>
+        <v>0.1201355173968658</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02038566271079446</v>
+        <v>0.03086913790283719</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2613,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1780884396.386061</v>
+        <v>1306861468.746312</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1929884822302889</v>
+        <v>0.1469667588290669</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04401483396837919</v>
+        <v>0.04759392650697358</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2654,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5129509397.154578</v>
+        <v>5224580024.479958</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07619773592351414</v>
+        <v>0.106944271309226</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04644242623541245</v>
+        <v>0.03189528942744433</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>137</v>
+      </c>
+      <c r="J63" t="n">
+        <v>283</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2683,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4682111030.730734</v>
+        <v>5267689409.394849</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1813559811153143</v>
+        <v>0.1589869144886187</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02724013891056141</v>
+        <v>0.03528727111870598</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>139</v>
+      </c>
+      <c r="J64" t="n">
+        <v>282</v>
+      </c>
+      <c r="K64" t="n">
+        <v>89.22865270891496</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2726,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4675020893.617431</v>
+        <v>5315155213.167193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1136830389877586</v>
+        <v>0.1524797083073924</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02304264413465434</v>
+        <v>0.02140036049831395</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>227</v>
+      </c>
+      <c r="J65" t="n">
+        <v>282</v>
+      </c>
+      <c r="K65" t="n">
+        <v>89.49602528565487</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2757,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3720166645.212467</v>
+        <v>5287893101.197183</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1019487857908359</v>
+        <v>0.1455050168971248</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0307875608801208</v>
+        <v>0.0366125038037322</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>140</v>
+      </c>
+      <c r="J66" t="n">
+        <v>282</v>
+      </c>
+      <c r="K66" t="n">
+        <v>83.70638136985497</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3502641203.0942</v>
+        <v>2150764130.671512</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07488171300824026</v>
+        <v>0.06393722483721066</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04181052152650125</v>
+        <v>0.03663970705255372</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2835,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4638981740.418559</v>
+        <v>4891805866.890347</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1533567620094896</v>
+        <v>0.1348062715649453</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03226791750953999</v>
+        <v>0.04593398784221507</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>147</v>
+      </c>
+      <c r="J68" t="n">
+        <v>282</v>
+      </c>
+      <c r="K68" t="n">
+        <v>90.63193601447627</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1790208909.421928</v>
+        <v>2415749249.816582</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1686997984129586</v>
+        <v>0.113361902411233</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05436090879572451</v>
+        <v>0.04243242081970383</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3409654714.690604</v>
+        <v>3282697879.175521</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0757761616190873</v>
+        <v>0.08309885065751293</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04853491120610513</v>
+        <v>0.04458690240368593</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>280</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4023801939.790451</v>
+        <v>4873954630.34809</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1182330063618108</v>
+        <v>0.1118462713211361</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0298322028507373</v>
+        <v>0.02227938944208147</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>212</v>
+      </c>
+      <c r="J71" t="n">
+        <v>283</v>
+      </c>
+      <c r="K71" t="n">
+        <v>92.14634128065263</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2973,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1777216153.456576</v>
+        <v>1394796227.331644</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07868976498506176</v>
+        <v>0.07975487667185648</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04987203722369737</v>
+        <v>0.03787857943360457</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3565907552.028671</v>
+        <v>2865089387.976659</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0905161018208552</v>
+        <v>0.07176941582860509</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04744235841896583</v>
+        <v>0.04201103188027405</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3043,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3069927700.693279</v>
+        <v>2949572890.616602</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1345958077390769</v>
+        <v>0.1504772304370031</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02465669006529228</v>
+        <v>0.03257608556702931</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>76</v>
+      </c>
+      <c r="J74" t="n">
+        <v>268</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1785499552.846367</v>
+        <v>2431301885.766182</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1352433931854561</v>
+        <v>0.1546913000307054</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03614676443431491</v>
+        <v>0.03506824842718368</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,16 +3119,25 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4269988095.504982</v>
+        <v>3270267281.383113</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1187115496519119</v>
+        <v>0.09867186321566321</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03141139215994738</v>
+        <v>0.02872390298949752</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>133</v>
+      </c>
+      <c r="J76" t="n">
+        <v>282</v>
+      </c>
+      <c r="K76" t="n">
+        <v>49.92025109321623</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3150,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1571100947.400797</v>
+        <v>2282340393.930148</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1774931856229829</v>
+        <v>0.1653109338505517</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02235653777463113</v>
+        <v>0.02038028281062812</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3185,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4418529112.150568</v>
+        <v>2952155292.68939</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08555766828758639</v>
+        <v>0.1163346690882478</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03635556403154461</v>
+        <v>0.05184472118653931</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>141</v>
+      </c>
+      <c r="J78" t="n">
+        <v>280</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1284418394.089548</v>
+        <v>1316573118.993406</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1367146924156768</v>
+        <v>0.1194059842705508</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02633461209197523</v>
+        <v>0.02658089080081474</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3261,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3953675343.965775</v>
+        <v>4438685076.189943</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0688481077692038</v>
+        <v>0.07003333396997574</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03011441827890407</v>
+        <v>0.02477603312065465</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>138</v>
+      </c>
+      <c r="J80" t="n">
+        <v>283</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3431820514.257693</v>
+        <v>4092859994.818006</v>
       </c>
       <c r="F81" t="n">
-        <v>0.126162550354706</v>
+        <v>0.09065929581381196</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02121557047649007</v>
+        <v>0.02751590828872257</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>130</v>
+      </c>
+      <c r="J81" t="n">
+        <v>282</v>
+      </c>
+      <c r="K81" t="n">
+        <v>75.42318097897152</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3327,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5570749408.187737</v>
+        <v>5538912409.20085</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2020816340364652</v>
+        <v>0.17478125504</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02874505846970518</v>
+        <v>0.02006900249354536</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>210</v>
+      </c>
+      <c r="J82" t="n">
+        <v>282</v>
+      </c>
+      <c r="K82" t="n">
+        <v>89.77311316420267</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1933744884.35545</v>
+        <v>1779207286.712773</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1318101177288916</v>
+        <v>0.145917216361905</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04134625758411075</v>
+        <v>0.04525219165426956</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2187686932.980717</v>
+        <v>1635378614.125491</v>
       </c>
       <c r="F84" t="n">
-        <v>0.104524004688714</v>
+        <v>0.07876318594375581</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04344317227564827</v>
+        <v>0.05239925570641508</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3047764402.990432</v>
+        <v>3684425639.346157</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1580339124170777</v>
+        <v>0.173978002498432</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03913557517020549</v>
+        <v>0.04657204074371604</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="n">
+        <v>84.72210193740166</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3477,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1874108358.661735</v>
+        <v>2090822979.086607</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1624796218944607</v>
+        <v>0.1635641602342577</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02239625167900837</v>
+        <v>0.0233071161599003</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1397044395.951284</v>
+        <v>1345346581.418802</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1197668666063793</v>
+        <v>0.1889861931899648</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03311005440918031</v>
+        <v>0.03224047236361803</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3547,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3239986863.536047</v>
+        <v>2311331768.296948</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1785590464170173</v>
+        <v>0.1265079502287467</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03237796851466668</v>
+        <v>0.0291882829908901</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>40</v>
+      </c>
+      <c r="J88" t="n">
+        <v>280</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2132672271.886392</v>
+        <v>3280056682.559903</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1508237324351422</v>
+        <v>0.1025548900534281</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03898615488222414</v>
+        <v>0.03894761194379018</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2168814216.405091</v>
+        <v>1759604935.286311</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1288415571399804</v>
+        <v>0.1182924897931163</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05004639752660883</v>
+        <v>0.04499298485553133</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1284206520.475009</v>
+        <v>1519458531.268114</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1432923032247099</v>
+        <v>0.1339736738814326</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05929706894548485</v>
+        <v>0.039918842337167</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3687,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2513448540.31849</v>
+        <v>1929860861.518883</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0960159201894776</v>
+        <v>0.07101893000024768</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04630682849826391</v>
+        <v>0.03443180451491108</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4601782905.109446</v>
+        <v>4775852705.164414</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09936718457908668</v>
+        <v>0.1075395403980366</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04297797141333713</v>
+        <v>0.04170627982023151</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>124</v>
+      </c>
+      <c r="J93" t="n">
+        <v>282</v>
+      </c>
+      <c r="K93" t="n">
+        <v>90.36298951999251</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1852977327.004706</v>
+        <v>2170674468.870325</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1340406182471822</v>
+        <v>0.1425686905691322</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03293597199506945</v>
+        <v>0.03665994528636406</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3282626393.674261</v>
+        <v>3001232458.806946</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1005589574799362</v>
+        <v>0.116769696452892</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04295218315652131</v>
+        <v>0.03541055552951226</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2195733272.545223</v>
+        <v>2097333217.241461</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1380402699473574</v>
+        <v>0.1253140534988145</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04002136788922922</v>
+        <v>0.04152631537042212</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3374234387.721924</v>
+        <v>4376070218.104468</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1282907416121349</v>
+        <v>0.1322860347785818</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02606429805586793</v>
+        <v>0.02796678984368709</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>140</v>
+      </c>
+      <c r="J97" t="n">
+        <v>283</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3206161088.349166</v>
+        <v>3645070585.339644</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1086707038897904</v>
+        <v>0.1030469281347298</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0247236592685967</v>
+        <v>0.02986317910169663</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>67</v>
+      </c>
+      <c r="J98" t="n">
+        <v>283</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2245095125.420587</v>
+        <v>3217418893.834117</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1282251174175222</v>
+        <v>0.0976771486000635</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03477354026970332</v>
+        <v>0.02838902723809591</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4330556107.918092</v>
+        <v>4622486167.467643</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1721368643141163</v>
+        <v>0.1394904432661915</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02034459142143505</v>
+        <v>0.02156826085319475</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>121</v>
+      </c>
+      <c r="J100" t="n">
+        <v>282</v>
+      </c>
+      <c r="K100" t="n">
+        <v>90.43611726628649</v>
       </c>
     </row>
     <row r="101">
@@ -3258,17 +4006,24 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2194423480.128596</v>
+        <v>2365527984.644119</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2183529032747588</v>
+        <v>0.2092252014806666</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0576379122792231</v>
+        <v>0.04339709057223479</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
